--- a/docs/数据库表结构说明.xlsx
+++ b/docs/数据库表结构说明.xlsx
@@ -4,21 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22104" windowHeight="7764" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22104" windowHeight="7764" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="登录用户信息表(UPM_USER)" sheetId="1" r:id="rId1"/>
     <sheet name="角色信息表(UPM_USER)" sheetId="2" r:id="rId2"/>
     <sheet name="权限信息表(UPM_PERMISSION)" sheetId="3" r:id="rId3"/>
     <sheet name="角色权限关系表()" sheetId="4" r:id="rId4"/>
+    <sheet name="接收消息(RES_MESSAGE)" sheetId="6" r:id="rId5"/>
+    <sheet name="自定义菜单(PROFILE_MENU)" sheetId="7" r:id="rId6"/>
+    <sheet name="公众账号基本信息(USER_INFO)" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:U25"/>
+  <oleSize ref="A1:I25"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="156">
   <si>
     <t>id</t>
   </si>
@@ -308,6 +311,243 @@
   </si>
   <si>
     <t>权限ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MsgId</t>
+  </si>
+  <si>
+    <t>消息id，64位整型</t>
+  </si>
+  <si>
+    <t>ToUserName</t>
+  </si>
+  <si>
+    <t>开发者微信号</t>
+  </si>
+  <si>
+    <t>FromUserName</t>
+  </si>
+  <si>
+    <t>发送方帐号（一个OpenID）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateTime</t>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息创建时间 （整型）</t>
+  </si>
+  <si>
+    <t>MsgType</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>文本消息内容</t>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单的响应动作类型，view表示网页类型，click表示点击类型，miniprogram表示小程序类型</t>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 菜单标题，不超过16个字节，子菜单不超过60个字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>菜单KEY值，用于消息接口推送，不超过128字节</t>
+  </si>
+  <si>
+    <t>varchar2(1024)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页 链接，用户点击菜单可打开链接，不超过1024字节。 type为miniprogram时，不支持小程序的老版本客户端将打开本url。</t>
+  </si>
+  <si>
+    <t>media_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用新增永久素材接口返回的合法media_id</t>
+  </si>
+  <si>
+    <t>appid</t>
+  </si>
+  <si>
+    <t>小程序的appid（仅认证公众号可配置）</t>
+  </si>
+  <si>
+    <t>pagepath</t>
+  </si>
+  <si>
+    <t>小程序的页面路径</t>
+  </si>
+  <si>
+    <t>parent_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscribe</t>
+  </si>
+  <si>
+    <t>Varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 用户是否订阅该公众号标识，值为0时，代表此用户没有关注该公众号，拉取不到其余信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户的标识，对当前公众号唯一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickname</t>
+  </si>
+  <si>
+    <t>用户的昵称</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>用户的性别，值为1时是男性，值为2时是女性，值为0时是未知</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>用户所在城市</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>用户所在国家</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>用户所在省份</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>用户的语言，简体中文为zh_CN</t>
+  </si>
+  <si>
+    <t>headimgurl</t>
+  </si>
+  <si>
+    <t>subscribe_time</t>
+  </si>
+  <si>
+    <t>用户关注时间，为时间戳。如果用户曾多次关注，则取最后关注时间</t>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unionid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有在用户将公众号绑定到微信开放平台帐号后，才会出现该字段。</t>
+  </si>
+  <si>
+    <t>公众号运营者对粉丝的备注，公众号运营者可在微信公众平台用户管理界面对粉丝添加备注</t>
+  </si>
+  <si>
+    <t>groupid</t>
+  </si>
+  <si>
+    <t>用户所在的分组ID（兼容旧的用户分组接口）</t>
+  </si>
+  <si>
+    <t>tagid_list</t>
+  </si>
+  <si>
+    <t>用户被打上的标签ID列表</t>
+  </si>
+  <si>
+    <t>subscribe_scene</t>
+  </si>
+  <si>
+    <t>用户头像，最后一个数值代表正方形头像大小（有0、46、64、96、132数值可选，0代表640*640
+正方形头像），用户没有头像时该项为空。若用户更换头像，原有头像URL将失效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回用户关注的渠道来源，ADD_SCENE_SEARCH 公众号搜索，ADD_SCENE_ACCOUNT_MIGRATION
+ 公众号迁移，ADD_SCENE_PROFILE_CARD 名片分享，ADD_SCENE_QR_CODE 扫描二维码，
+ADD_SCENEPROFILE LINK 图文页内名称点击，ADD_SCENE_PROFILE_ITEM 图文页右上角菜单，
+ADD_SCENE_PAID 支付后关注，ADD_SCENE_OTHERS 其他</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -351,8 +591,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -992,7 +1238,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="A1:XFD1048576"/>
+      <selection activeCell="A14" sqref="A14:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1221,8 +1467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1296,4 +1542,581 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L22" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A1:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="123.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="88.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>